--- a/Code/Results/Cases/Case_1_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2733425230372006</v>
+        <v>0.1424251357742037</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1.32350759382328</v>
+        <v>0.3327257862217721</v>
       </c>
       <c r="E2">
-        <v>0.3200927944498915</v>
+        <v>0.07331599993843696</v>
       </c>
       <c r="F2">
-        <v>14.04697166261263</v>
+        <v>8.8416736834983</v>
       </c>
       <c r="G2">
-        <v>0.0006272604036737404</v>
+        <v>0.002693157817373358</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06263583241161896</v>
+        <v>0.06846980932727931</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8.688814281568739</v>
+        <v>3.704961644579555</v>
       </c>
       <c r="N2">
-        <v>0.8691655756387462</v>
+        <v>1.422206768421688</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2383229326563026</v>
+        <v>0.132937712117851</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1.063814218230362</v>
+        <v>0.2976225236081973</v>
       </c>
       <c r="E3">
-        <v>0.2611028402036482</v>
+        <v>0.06373473003400676</v>
       </c>
       <c r="F3">
-        <v>11.5510822879109</v>
+        <v>8.612767752135028</v>
       </c>
       <c r="G3">
-        <v>0.0006721813625792526</v>
+        <v>0.002710927555352015</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05757148423817782</v>
+        <v>0.06758737773010282</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>7.172282748236171</v>
+        <v>3.48253898129667</v>
       </c>
       <c r="N3">
-        <v>0.912762575998272</v>
+        <v>1.431318878071025</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2171464401949805</v>
+        <v>0.1271826007833425</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9262331616246513</v>
+        <v>0.2764085397485019</v>
       </c>
       <c r="E4">
-        <v>0.2293137714025804</v>
+        <v>0.05786952203919071</v>
       </c>
       <c r="F4">
-        <v>10.24481030190108</v>
+        <v>8.481048648594168</v>
       </c>
       <c r="G4">
-        <v>0.0006978396202782453</v>
+        <v>0.002722338300031042</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05478808934372381</v>
+        <v>0.06705173993185198</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>6.346334263700442</v>
+        <v>3.348696403160773</v>
       </c>
       <c r="N4">
-        <v>0.9383510713657301</v>
+        <v>1.437671333302944</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2085813746862613</v>
+        <v>0.124855124924494</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.8738559926742084</v>
+        <v>0.267843439248594</v>
       </c>
       <c r="E5">
-        <v>0.2170975684158236</v>
+        <v>0.05548279524793998</v>
       </c>
       <c r="F5">
-        <v>9.751389519110234</v>
+        <v>8.429534558809394</v>
       </c>
       <c r="G5">
-        <v>0.0007080144598905645</v>
+        <v>0.002727115009620664</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05370729009652564</v>
+        <v>0.0668349815686895</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>6.027641213108183</v>
+        <v>3.294815736227349</v>
       </c>
       <c r="N5">
-        <v>0.9487061305026856</v>
+        <v>1.440451369632171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2071626536040867</v>
+        <v>0.124469726868071</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8653444807760877</v>
+        <v>0.2664258683314529</v>
       </c>
       <c r="E6">
-        <v>0.2151059893089098</v>
+        <v>0.05508665560472537</v>
       </c>
       <c r="F6">
-        <v>9.671436025834225</v>
+        <v>8.421109642003415</v>
       </c>
       <c r="G6">
-        <v>0.0007096911730256824</v>
+        <v>0.002727915861971015</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05353048504024827</v>
+        <v>0.06679907972285548</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>5.975626431515366</v>
+        <v>3.285908144021306</v>
       </c>
       <c r="N6">
-        <v>0.9504256663500286</v>
+        <v>1.440924575709843</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2170306859461277</v>
+        <v>0.127151139475842</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9255136086134428</v>
+        <v>0.2762927121004566</v>
       </c>
       <c r="E7">
-        <v>0.2291463944121119</v>
+        <v>0.05783732144906395</v>
       </c>
       <c r="F7">
-        <v>10.23801591534183</v>
+        <v>8.48034523053812</v>
       </c>
       <c r="G7">
-        <v>0.0006979777825429639</v>
+        <v>0.00272240220610917</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05477332386953293</v>
+        <v>0.06704881055007661</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>6.341972185232294</v>
+        <v>3.34796710339711</v>
       </c>
       <c r="N7">
-        <v>0.9384908043674187</v>
+        <v>1.437708049881479</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2611872344143222</v>
+        <v>0.1391393718328402</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.227971558830433</v>
+        <v>0.3205482549685996</v>
       </c>
       <c r="E8">
-        <v>0.2985306048831617</v>
+        <v>0.07000804245964076</v>
       </c>
       <c r="F8">
-        <v>13.12506324713962</v>
+        <v>8.760878663305903</v>
       </c>
       <c r="G8">
-        <v>0.0006433103766080463</v>
+        <v>0.002699181643825504</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06079856817035889</v>
+        <v>0.06816424231885065</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8.137229357116809</v>
+        <v>3.627689644949982</v>
       </c>
       <c r="N8">
-        <v>0.8846261305040741</v>
+        <v>1.425191896030867</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3522068689936475</v>
+        <v>0.1632013034624151</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>2.249115081413407</v>
+        <v>0.4102941477815421</v>
       </c>
       <c r="E9">
-        <v>0.5232583686292216</v>
+        <v>0.09406638417285507</v>
       </c>
       <c r="F9">
-        <v>23.0579011401706</v>
+        <v>9.383815710844544</v>
       </c>
       <c r="G9">
-        <v>0.0004928121500972421</v>
+        <v>0.002657567578034588</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07958712273036639</v>
+        <v>0.07040244611254565</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.67291160957592</v>
+        <v>4.199020113227107</v>
       </c>
       <c r="N9">
-        <v>0.736202413985211</v>
+        <v>1.406622458071354</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3522068689936475</v>
+        <v>0.1812135996092934</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.249115081413407</v>
+        <v>0.4784258943271311</v>
       </c>
       <c r="E10">
-        <v>0.5232583686292216</v>
+        <v>0.1119338434516024</v>
       </c>
       <c r="F10">
-        <v>23.0579011401706</v>
+        <v>9.88990247004358</v>
       </c>
       <c r="G10">
-        <v>0.0004928121500972421</v>
+        <v>0.002629317983139971</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07958712273036639</v>
+        <v>0.07208072087731665</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.67291160957592</v>
+        <v>4.634409935311652</v>
       </c>
       <c r="N10">
-        <v>0.736202413985211</v>
+        <v>1.396574814320218</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3522068689936475</v>
+        <v>0.1894799153733544</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>2.249115081413407</v>
+        <v>0.5099878824534585</v>
       </c>
       <c r="E11">
-        <v>0.5232583686292216</v>
+        <v>0.1201212641504483</v>
       </c>
       <c r="F11">
-        <v>23.0579011401706</v>
+        <v>10.13158132969437</v>
       </c>
       <c r="G11">
-        <v>0.0004928121500972421</v>
+        <v>0.002616956332876233</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07958712273036639</v>
+        <v>0.07285225769906845</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>13.67291160957592</v>
+        <v>4.836280531111555</v>
       </c>
       <c r="N11">
-        <v>0.736202413985211</v>
+        <v>1.39277496353364</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3522068689936475</v>
+        <v>0.1926204914766458</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>2.249115081413407</v>
+        <v>0.5220291009986795</v>
       </c>
       <c r="E12">
-        <v>0.5232583686292216</v>
+        <v>0.1232316602000978</v>
       </c>
       <c r="F12">
-        <v>23.0579011401706</v>
+        <v>10.22482696967745</v>
       </c>
       <c r="G12">
-        <v>0.0004928121500972421</v>
+        <v>0.002612344417601091</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07958712273036639</v>
+        <v>0.07314563869430657</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>13.67291160957592</v>
+        <v>4.91330616976191</v>
       </c>
       <c r="N12">
-        <v>0.736202413985211</v>
+        <v>1.391446125285739</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3522068689936475</v>
+        <v>0.191943655814228</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>2.249115081413407</v>
+        <v>0.5194317083671081</v>
       </c>
       <c r="E13">
-        <v>0.5232583686292216</v>
+        <v>0.1225613121668019</v>
       </c>
       <c r="F13">
-        <v>23.0579011401706</v>
+        <v>10.20466672876131</v>
       </c>
       <c r="G13">
-        <v>0.0004928121500972421</v>
+        <v>0.00261333461867544</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07958712273036639</v>
+        <v>0.07308239881773204</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>13.67291160957592</v>
+        <v>4.896690893691698</v>
       </c>
       <c r="N13">
-        <v>0.736202413985211</v>
+        <v>1.391727430508411</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3522068689936475</v>
+        <v>0.1897380866336817</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>2.249115081413407</v>
+        <v>0.5109766843898456</v>
       </c>
       <c r="E14">
-        <v>0.5232583686292216</v>
+        <v>0.1203769493473885</v>
       </c>
       <c r="F14">
-        <v>23.0579011401706</v>
+        <v>10.13921762064672</v>
       </c>
       <c r="G14">
-        <v>0.0004928121500972421</v>
+        <v>0.00261657552850307</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07958712273036639</v>
+        <v>0.07287636961720523</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>13.67291160957592</v>
+        <v>4.842605619702937</v>
       </c>
       <c r="N14">
-        <v>0.736202413985211</v>
+        <v>1.392663437339806</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3522068689936475</v>
+        <v>0.1883884501110771</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2.249115081413407</v>
+        <v>0.5058096108169252</v>
       </c>
       <c r="E15">
-        <v>0.5232583686292216</v>
+        <v>0.1190403104327658</v>
       </c>
       <c r="F15">
-        <v>23.0579011401706</v>
+        <v>10.09935550253442</v>
       </c>
       <c r="G15">
-        <v>0.0004928121500972421</v>
+        <v>0.002618569651780974</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07958712273036639</v>
+        <v>0.07275033093217331</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>13.67291160957592</v>
+        <v>4.809553608242624</v>
       </c>
       <c r="N15">
-        <v>0.736202413985211</v>
+        <v>1.393251082015894</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3522068689936475</v>
+        <v>0.1806748241120602</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>2.249115081413407</v>
+        <v>0.4763753273219891</v>
       </c>
       <c r="E16">
-        <v>0.5232583686292216</v>
+        <v>0.1114000944478661</v>
       </c>
       <c r="F16">
-        <v>23.0579011401706</v>
+        <v>9.874345447166206</v>
       </c>
       <c r="G16">
-        <v>0.0004928121500972421</v>
+        <v>0.002630135590863058</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07958712273036639</v>
+        <v>0.07203046632677967</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.67291160957592</v>
+        <v>4.621296723365475</v>
       </c>
       <c r="N16">
-        <v>0.736202413985211</v>
+        <v>1.396838589503588</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3522068689936475</v>
+        <v>0.1759612335246175</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.249115081413407</v>
+        <v>0.4584692638042043</v>
       </c>
       <c r="E17">
-        <v>0.5232583686292216</v>
+        <v>0.106729299005508</v>
       </c>
       <c r="F17">
-        <v>23.0579011401706</v>
+        <v>9.739298905143698</v>
       </c>
       <c r="G17">
-        <v>0.0004928121500972421</v>
+        <v>0.002637355397655459</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07958712273036639</v>
+        <v>0.07159096012177102</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.67291160957592</v>
+        <v>4.506806418967926</v>
       </c>
       <c r="N17">
-        <v>0.736202413985211</v>
+        <v>1.399236297631759</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3522068689936475</v>
+        <v>0.1732569250608123</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2.249115081413407</v>
+        <v>0.4482232019738319</v>
       </c>
       <c r="E18">
-        <v>0.5232583686292216</v>
+        <v>0.1040482829085647</v>
       </c>
       <c r="F18">
-        <v>23.0579011401706</v>
+        <v>9.662697137341752</v>
       </c>
       <c r="G18">
-        <v>0.0004928121500972421</v>
+        <v>0.002641554161599876</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07958712273036639</v>
+        <v>0.07133892490685767</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.67291160957592</v>
+        <v>4.441311066693714</v>
       </c>
       <c r="N18">
-        <v>0.736202413985211</v>
+        <v>1.400687999156403</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3522068689936475</v>
+        <v>0.1723424682823946</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>2.249115081413407</v>
+        <v>0.4447629437124192</v>
       </c>
       <c r="E19">
-        <v>0.5232583686292216</v>
+        <v>0.1031414388540952</v>
       </c>
       <c r="F19">
-        <v>23.0579011401706</v>
+        <v>9.636943100681833</v>
       </c>
       <c r="G19">
-        <v>0.0004928121500972421</v>
+        <v>0.002642983747182352</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07958712273036639</v>
+        <v>0.07125371855212137</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.67291160957592</v>
+        <v>4.419195685261144</v>
       </c>
       <c r="N19">
-        <v>0.736202413985211</v>
+        <v>1.401192013630606</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3522068689936475</v>
+        <v>0.1764622978525381</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2.249115081413407</v>
+        <v>0.4603698521725619</v>
       </c>
       <c r="E20">
-        <v>0.5232583686292216</v>
+        <v>0.1072259334476655</v>
       </c>
       <c r="F20">
-        <v>23.0579011401706</v>
+        <v>9.753563180918093</v>
       </c>
       <c r="G20">
-        <v>0.0004928121500972421</v>
+        <v>0.002636582072017113</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07958712273036639</v>
+        <v>0.0716376675639836</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.67291160957592</v>
+        <v>4.51895697789422</v>
       </c>
       <c r="N20">
-        <v>0.736202413985211</v>
+        <v>1.398973548954956</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3522068689936475</v>
+        <v>0.1903856370652051</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>2.249115081413407</v>
+        <v>0.5134576414493495</v>
       </c>
       <c r="E21">
-        <v>0.5232583686292216</v>
+        <v>0.1210182663707897</v>
       </c>
       <c r="F21">
-        <v>23.0579011401706</v>
+        <v>10.15839408280408</v>
       </c>
       <c r="G21">
-        <v>0.0004928121500972421</v>
+        <v>0.002615621726921121</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07958712273036639</v>
+        <v>0.07293685190896326</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>13.67291160957592</v>
+        <v>4.858475711700436</v>
       </c>
       <c r="N21">
-        <v>0.736202413985211</v>
+        <v>1.392385527884628</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3522068689936475</v>
+        <v>0.1995453408346179</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2.249115081413407</v>
+        <v>0.5486783719229607</v>
       </c>
       <c r="E22">
-        <v>0.5232583686292216</v>
+        <v>0.130091356370464</v>
       </c>
       <c r="F22">
-        <v>23.0579011401706</v>
+        <v>10.43308126493912</v>
       </c>
       <c r="G22">
-        <v>0.0004928121500972421</v>
+        <v>0.002602325549161344</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07958712273036639</v>
+        <v>0.07379306451012724</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>13.67291160957592</v>
+        <v>5.083778058100648</v>
       </c>
       <c r="N22">
-        <v>0.736202413985211</v>
+        <v>1.388721174505662</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3522068689936475</v>
+        <v>0.1946511813049625</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>2.249115081413407</v>
+        <v>0.5298297636836082</v>
       </c>
       <c r="E23">
-        <v>0.5232583686292216</v>
+        <v>0.1252429785648417</v>
       </c>
       <c r="F23">
-        <v>23.0579011401706</v>
+        <v>10.28552340637503</v>
       </c>
       <c r="G23">
-        <v>0.0004928121500972421</v>
+        <v>0.002609385529287689</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07958712273036639</v>
+        <v>0.07333541703989255</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>13.67291160957592</v>
+        <v>4.963206523029072</v>
       </c>
       <c r="N23">
-        <v>0.736202413985211</v>
+        <v>1.390618480336514</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3522068689936475</v>
+        <v>0.1762357492260236</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>2.249115081413407</v>
+        <v>0.459510446073466</v>
       </c>
       <c r="E24">
-        <v>0.5232583686292216</v>
+        <v>0.1070013917739985</v>
       </c>
       <c r="F24">
-        <v>23.0579011401706</v>
+        <v>9.747111073771805</v>
       </c>
       <c r="G24">
-        <v>0.0004928121500972421</v>
+        <v>0.002636931542989832</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07958712273036639</v>
+        <v>0.07161654913130988</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.67291160957592</v>
+        <v>4.513462695299921</v>
       </c>
       <c r="N24">
-        <v>0.736202413985211</v>
+        <v>1.399092109487015</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3522068689936475</v>
+        <v>0.156633046539099</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>2.249115081413407</v>
+        <v>0.3856592775103991</v>
       </c>
       <c r="E25">
-        <v>0.5232583686292216</v>
+        <v>0.08752991909873487</v>
       </c>
       <c r="F25">
-        <v>23.0579011401706</v>
+        <v>9.207095282009277</v>
       </c>
       <c r="G25">
-        <v>0.0004928121500972421</v>
+        <v>0.002668412221411994</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07958712273036639</v>
+        <v>0.06979122420657546</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.67291160957592</v>
+        <v>4.041845588682804</v>
       </c>
       <c r="N25">
-        <v>0.736202413985211</v>
+        <v>1.411011272598643</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424251357742037</v>
+        <v>0.2733425230372291</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3327257862217721</v>
+        <v>1.323507593823024</v>
       </c>
       <c r="E2">
-        <v>0.07331599993843696</v>
+        <v>0.3200927944498986</v>
       </c>
       <c r="F2">
-        <v>8.8416736834983</v>
+        <v>14.04697166261258</v>
       </c>
       <c r="G2">
-        <v>0.002693157817373358</v>
+        <v>0.0006272604035439767</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06846980932727931</v>
+        <v>0.06263583241164739</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.704961644579555</v>
+        <v>8.688814281568739</v>
       </c>
       <c r="N2">
-        <v>1.422206768421688</v>
+        <v>0.8691655756387604</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.132937712117851</v>
+        <v>0.2383229326563168</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2976225236081973</v>
+        <v>1.063814218230249</v>
       </c>
       <c r="E3">
-        <v>0.06373473003400676</v>
+        <v>0.26110284020357</v>
       </c>
       <c r="F3">
-        <v>8.612767752135028</v>
+        <v>11.55108228791084</v>
       </c>
       <c r="G3">
-        <v>0.002710927555352015</v>
+        <v>0.0006721813624584247</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06758737773010282</v>
+        <v>0.05757148423812808</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.48253898129667</v>
+        <v>7.172282748236114</v>
       </c>
       <c r="N3">
-        <v>1.431318878071025</v>
+        <v>0.9127625759983431</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271826007833425</v>
+        <v>0.2171464401951937</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2764085397485019</v>
+        <v>0.9262331616244524</v>
       </c>
       <c r="E4">
-        <v>0.05786952203919071</v>
+        <v>0.2293137714025875</v>
       </c>
       <c r="F4">
-        <v>8.481048648594168</v>
+        <v>10.24481030190103</v>
       </c>
       <c r="G4">
-        <v>0.002722338300031042</v>
+        <v>0.0006978396202792672</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06705173993185198</v>
+        <v>0.05478808934374158</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.348696403160773</v>
+        <v>6.346334263700413</v>
       </c>
       <c r="N4">
-        <v>1.437671333302944</v>
+        <v>0.9383510713657301</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124855124924494</v>
+        <v>0.2085813746861334</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.267843439248594</v>
+        <v>0.8738559926736116</v>
       </c>
       <c r="E5">
-        <v>0.05548279524793998</v>
+        <v>0.2170975684158094</v>
       </c>
       <c r="F5">
-        <v>8.429534558809394</v>
+        <v>9.751389519110148</v>
       </c>
       <c r="G5">
-        <v>0.002727115009620664</v>
+        <v>0.0007080144597789238</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0668349815686895</v>
+        <v>0.05370729009638708</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.294815736227349</v>
+        <v>6.027641213108097</v>
       </c>
       <c r="N5">
-        <v>1.440451369632171</v>
+        <v>0.948706130502714</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.124469726868071</v>
+        <v>0.2071626536041009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2664258683314529</v>
+        <v>0.8653444807758035</v>
       </c>
       <c r="E6">
-        <v>0.05508665560472537</v>
+        <v>0.2151059893090022</v>
       </c>
       <c r="F6">
-        <v>8.421109642003415</v>
+        <v>9.671436025834339</v>
       </c>
       <c r="G6">
-        <v>0.002727915861971015</v>
+        <v>0.0007096911729137538</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06679907972285548</v>
+        <v>0.05353048504018787</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3.285908144021306</v>
+        <v>5.975626431515451</v>
       </c>
       <c r="N6">
-        <v>1.440924575709843</v>
+        <v>0.9504256663500286</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.127151139475842</v>
+        <v>0.2170306859460425</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2762927121004566</v>
+        <v>0.9255136086129596</v>
       </c>
       <c r="E7">
-        <v>0.05783732144906395</v>
+        <v>0.2291463944121546</v>
       </c>
       <c r="F7">
-        <v>8.48034523053812</v>
+        <v>10.23801591534192</v>
       </c>
       <c r="G7">
-        <v>0.00272240220610917</v>
+        <v>0.0006979777826414395</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06704881055007661</v>
+        <v>0.05477332386936595</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3.34796710339711</v>
+        <v>6.341972185232351</v>
       </c>
       <c r="N7">
-        <v>1.437708049881479</v>
+        <v>0.9384908043674045</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1391393718328402</v>
+        <v>0.2611872344141943</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3205482549685996</v>
+        <v>1.227971558830689</v>
       </c>
       <c r="E8">
-        <v>0.07000804245964076</v>
+        <v>0.298530604883176</v>
       </c>
       <c r="F8">
-        <v>8.760878663305903</v>
+        <v>13.12506324713956</v>
       </c>
       <c r="G8">
-        <v>0.002699181643825504</v>
+        <v>0.0006433103763491407</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06816424231885065</v>
+        <v>0.06079856817038021</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.627689644949982</v>
+        <v>8.13722935711678</v>
       </c>
       <c r="N8">
-        <v>1.425191896030867</v>
+        <v>0.8846261305040741</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1632013034624151</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4102941477815421</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E9">
-        <v>0.09406638417285507</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F9">
-        <v>9.383815710844544</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G9">
-        <v>0.002657567578034588</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07040244611254565</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.199020113227107</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N9">
-        <v>1.406622458071354</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1812135996092934</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4784258943271311</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E10">
-        <v>0.1119338434516024</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F10">
-        <v>9.88990247004358</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G10">
-        <v>0.002629317983139971</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07208072087731665</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.634409935311652</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N10">
-        <v>1.396574814320218</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1894799153733544</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5099878824534585</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E11">
-        <v>0.1201212641504483</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F11">
-        <v>10.13158132969437</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G11">
-        <v>0.002616956332876233</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07285225769906845</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.836280531111555</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N11">
-        <v>1.39277496353364</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1926204914766458</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5220291009986795</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E12">
-        <v>0.1232316602000978</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F12">
-        <v>10.22482696967745</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G12">
-        <v>0.002612344417601091</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07314563869430657</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.91330616976191</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N12">
-        <v>1.391446125285739</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.191943655814228</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5194317083671081</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E13">
-        <v>0.1225613121668019</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F13">
-        <v>10.20466672876131</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G13">
-        <v>0.00261333461867544</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07308239881773204</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.896690893691698</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N13">
-        <v>1.391727430508411</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1897380866336817</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5109766843898456</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E14">
-        <v>0.1203769493473885</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F14">
-        <v>10.13921762064672</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G14">
-        <v>0.00261657552850307</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07287636961720523</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.842605619702937</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N14">
-        <v>1.392663437339806</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1883884501110771</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5058096108169252</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E15">
-        <v>0.1190403104327658</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F15">
-        <v>10.09935550253442</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G15">
-        <v>0.002618569651780974</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07275033093217331</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.809553608242624</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N15">
-        <v>1.393251082015894</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1806748241120602</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4763753273219891</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E16">
-        <v>0.1114000944478661</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F16">
-        <v>9.874345447166206</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G16">
-        <v>0.002630135590863058</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07203046632677967</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.621296723365475</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N16">
-        <v>1.396838589503588</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1759612335246175</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.4584692638042043</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E17">
-        <v>0.106729299005508</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F17">
-        <v>9.739298905143698</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G17">
-        <v>0.002637355397655459</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07159096012177102</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.506806418967926</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N17">
-        <v>1.399236297631759</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1732569250608123</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4482232019738319</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E18">
-        <v>0.1040482829085647</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F18">
-        <v>9.662697137341752</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G18">
-        <v>0.002641554161599876</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07133892490685767</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.441311066693714</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N18">
-        <v>1.400687999156403</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1723424682823946</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4447629437124192</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E19">
-        <v>0.1031414388540952</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F19">
-        <v>9.636943100681833</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G19">
-        <v>0.002642983747182352</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07125371855212137</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.419195685261144</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N19">
-        <v>1.401192013630606</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1764622978525381</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.4603698521725619</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E20">
-        <v>0.1072259334476655</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F20">
-        <v>9.753563180918093</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G20">
-        <v>0.002636582072017113</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0716376675639836</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.51895697789422</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N20">
-        <v>1.398973548954956</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1903856370652051</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5134576414493495</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E21">
-        <v>0.1210182663707897</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F21">
-        <v>10.15839408280408</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G21">
-        <v>0.002615621726921121</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07293685190896326</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.858475711700436</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N21">
-        <v>1.392385527884628</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1995453408346179</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5486783719229607</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E22">
-        <v>0.130091356370464</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F22">
-        <v>10.43308126493912</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G22">
-        <v>0.002602325549161344</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07379306451012724</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.083778058100648</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N22">
-        <v>1.388721174505662</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1946511813049625</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5298297636836082</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E23">
-        <v>0.1252429785648417</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F23">
-        <v>10.28552340637503</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G23">
-        <v>0.002609385529287689</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07333541703989255</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.963206523029072</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N23">
-        <v>1.390618480336514</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1762357492260236</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.459510446073466</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E24">
-        <v>0.1070013917739985</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F24">
-        <v>9.747111073771805</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G24">
-        <v>0.002636931542989832</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07161654913130988</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.513462695299921</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N24">
-        <v>1.399092109487015</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156633046539099</v>
+        <v>0.3522068689936475</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3856592775103991</v>
+        <v>2.249115081413834</v>
       </c>
       <c r="E25">
-        <v>0.08752991909873487</v>
+        <v>0.52325836862925</v>
       </c>
       <c r="F25">
-        <v>9.207095282009277</v>
+        <v>23.05790114017049</v>
       </c>
       <c r="G25">
-        <v>0.002668412221411994</v>
+        <v>0.0004928121501030749</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06979122420657546</v>
+        <v>0.07958712273055468</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.041845588682804</v>
+        <v>13.67291160957586</v>
       </c>
       <c r="N25">
-        <v>1.411011272598643</v>
+        <v>0.7362024139851542</v>
       </c>
       <c r="O25">
         <v>0</v>
